--- a/training.xlsx
+++ b/training.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CZ4034-master\categorization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rookie/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="training" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1756">
   <si>
     <t>_version_</t>
   </si>
@@ -5379,12 +5384,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5392,7 +5397,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5400,7 +5405,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -5409,7 +5414,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5418,7 +5423,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5427,7 +5432,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5435,7 +5440,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5443,7 +5448,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5451,7 +5456,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5459,7 +5464,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5468,7 +5473,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5477,7 +5482,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5485,7 +5490,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5494,7 +5499,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5502,7 +5507,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5511,7 +5516,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5520,7 +5525,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5528,7 +5533,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5883,48 +5888,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6238,17 +6243,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C325" workbookViewId="0">
-      <selection activeCell="L351" sqref="L351"/>
+    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
+      <selection activeCell="L702" sqref="L702"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="140.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6283,7 +6288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>541</v>
       </c>
@@ -6321,7 +6326,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>440</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>482</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="210" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>422</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>778</v>
       </c>
@@ -6473,7 +6478,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>949</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="165" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>334</v>
       </c>
@@ -6549,7 +6554,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>576</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>934</v>
       </c>
@@ -6625,7 +6630,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>567</v>
       </c>
@@ -6663,7 +6668,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>594</v>
       </c>
@@ -6701,7 +6706,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>530</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>581</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>707</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>448</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>453</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>228</v>
       </c>
@@ -6929,7 +6934,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>352</v>
       </c>
@@ -6967,7 +6972,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>728</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>212</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>79</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>148</v>
       </c>
@@ -7119,7 +7124,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>302</v>
       </c>
@@ -7157,7 +7162,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>628</v>
       </c>
@@ -7195,7 +7200,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>777</v>
       </c>
@@ -7233,7 +7238,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>506</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>342</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>485</v>
       </c>
@@ -7347,7 +7352,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>711</v>
       </c>
@@ -7385,7 +7390,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>133</v>
       </c>
@@ -7423,7 +7428,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>703</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>311</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>722</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>629</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -7613,7 +7618,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>316</v>
       </c>
@@ -7651,7 +7656,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>706</v>
       </c>
@@ -7689,7 +7694,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>547</v>
       </c>
@@ -7727,7 +7732,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>872</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>532</v>
       </c>
@@ -7803,7 +7808,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>477</v>
       </c>
@@ -7841,7 +7846,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>404</v>
       </c>
@@ -7879,7 +7884,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>172</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>125</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>394</v>
       </c>
@@ -7993,7 +7998,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>420</v>
       </c>
@@ -8031,7 +8036,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>552</v>
       </c>
@@ -8069,7 +8074,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>903</v>
       </c>
@@ -8107,7 +8112,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>90</v>
       </c>
@@ -8145,7 +8150,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>939</v>
       </c>
@@ -8183,7 +8188,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>181</v>
       </c>
@@ -8221,7 +8226,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>274</v>
       </c>
@@ -8259,7 +8264,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>895</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>69</v>
       </c>
@@ -8335,7 +8340,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>291</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>131</v>
       </c>
@@ -8411,7 +8416,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>300</v>
       </c>
@@ -8449,7 +8454,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>424</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>326</v>
       </c>
@@ -8525,7 +8530,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>144</v>
       </c>
@@ -8563,7 +8568,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="195" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>423</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>580</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>135</v>
       </c>
@@ -8677,7 +8682,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>450</v>
       </c>
@@ -8715,7 +8720,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>164</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>28</v>
       </c>
@@ -8791,7 +8796,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>773</v>
       </c>
@@ -8829,7 +8834,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>193</v>
       </c>
@@ -8867,7 +8872,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>388</v>
       </c>
@@ -8905,7 +8910,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>852</v>
       </c>
@@ -8943,7 +8948,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>169</v>
       </c>
@@ -8981,7 +8986,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>705</v>
       </c>
@@ -9019,7 +9024,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>140</v>
       </c>
@@ -9057,7 +9062,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>173</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6</v>
       </c>
@@ -9133,7 +9138,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>745</v>
       </c>
@@ -9171,7 +9176,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>478</v>
       </c>
@@ -9209,7 +9214,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>73</v>
       </c>
@@ -9247,7 +9252,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>910</v>
       </c>
@@ -9285,7 +9290,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>813</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>238</v>
       </c>
@@ -9361,7 +9366,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>145</v>
       </c>
@@ -9399,7 +9404,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>792</v>
       </c>
@@ -9437,7 +9442,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>234</v>
       </c>
@@ -9475,7 +9480,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>220</v>
       </c>
@@ -9513,7 +9518,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>923</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>500</v>
       </c>
@@ -9589,7 +9594,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>132</v>
       </c>
@@ -9627,7 +9632,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>990</v>
       </c>
@@ -9665,7 +9670,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>774</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>185</v>
       </c>
@@ -9741,7 +9746,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>41</v>
       </c>
@@ -9779,7 +9784,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>696</v>
       </c>
@@ -9817,7 +9822,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>108</v>
       </c>
@@ -9855,7 +9860,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>588</v>
       </c>
@@ -9893,7 +9898,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>56</v>
       </c>
@@ -9931,7 +9936,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>405</v>
       </c>
@@ -9969,7 +9974,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>442</v>
       </c>
@@ -10007,7 +10012,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>757</v>
       </c>
@@ -10045,7 +10050,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>997</v>
       </c>
@@ -10083,7 +10088,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>24</v>
       </c>
@@ -10121,7 +10126,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>467</v>
       </c>
@@ -10159,7 +10164,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>539</v>
       </c>
@@ -10197,7 +10202,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>531</v>
       </c>
@@ -10235,7 +10240,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>618</v>
       </c>
@@ -10273,7 +10278,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>694</v>
       </c>
@@ -10311,7 +10316,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>926</v>
       </c>
@@ -10349,7 +10354,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>338</v>
       </c>
@@ -10387,7 +10392,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>51</v>
       </c>
@@ -10425,7 +10430,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>507</v>
       </c>
@@ -10463,7 +10468,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>516</v>
       </c>
@@ -10501,7 +10506,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>920</v>
       </c>
@@ -10539,7 +10544,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>781</v>
       </c>
@@ -10577,7 +10582,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>264</v>
       </c>
@@ -10615,7 +10620,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>817</v>
       </c>
@@ -10653,7 +10658,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>710</v>
       </c>
@@ -10691,7 +10696,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>682</v>
       </c>
@@ -10729,7 +10734,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>832</v>
       </c>
@@ -10767,7 +10772,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>518</v>
       </c>
@@ -10805,7 +10810,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>447</v>
       </c>
@@ -10843,7 +10848,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>18</v>
       </c>
@@ -10881,7 +10886,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>715</v>
       </c>
@@ -10919,7 +10924,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>483</v>
       </c>
@@ -10957,7 +10962,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>568</v>
       </c>
@@ -10995,7 +11000,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>433</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>367</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>83</v>
       </c>
@@ -11109,7 +11114,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>61</v>
       </c>
@@ -11147,7 +11152,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>638</v>
       </c>
@@ -11185,7 +11190,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>272</v>
       </c>
@@ -11223,7 +11228,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>285</v>
       </c>
@@ -11261,7 +11266,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" ht="135" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>360</v>
       </c>
@@ -11299,7 +11304,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>354</v>
       </c>
@@ -11337,7 +11342,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>456</v>
       </c>
@@ -11375,7 +11380,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>278</v>
       </c>
@@ -11413,7 +11418,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>12</v>
       </c>
@@ -11451,7 +11456,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>182</v>
       </c>
@@ -11489,7 +11494,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>368</v>
       </c>
@@ -11527,7 +11532,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>881</v>
       </c>
@@ -11565,7 +11570,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>615</v>
       </c>
@@ -11603,7 +11608,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>223</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>572</v>
       </c>
@@ -11679,7 +11684,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>970</v>
       </c>
@@ -11717,7 +11722,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>653</v>
       </c>
@@ -11755,7 +11760,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>545</v>
       </c>
@@ -11793,7 +11798,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>582</v>
       </c>
@@ -11831,7 +11836,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>633</v>
       </c>
@@ -11869,7 +11874,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>176</v>
       </c>
@@ -11907,7 +11912,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>665</v>
       </c>
@@ -11945,7 +11950,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>673</v>
       </c>
@@ -11983,7 +11988,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>585</v>
       </c>
@@ -12021,7 +12026,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>873</v>
       </c>
@@ -12059,7 +12064,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>393</v>
       </c>
@@ -12097,7 +12102,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>163</v>
       </c>
@@ -12135,7 +12140,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>248</v>
       </c>
@@ -12173,7 +12178,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>634</v>
       </c>
@@ -12211,7 +12216,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>885</v>
       </c>
@@ -12249,7 +12254,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>669</v>
       </c>
@@ -12287,7 +12292,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>375</v>
       </c>
@@ -12325,7 +12330,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>412</v>
       </c>
@@ -12363,7 +12368,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>74</v>
       </c>
@@ -12401,7 +12406,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>113</v>
       </c>
@@ -12439,7 +12444,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>598</v>
       </c>
@@ -12477,7 +12482,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>961</v>
       </c>
@@ -12515,7 +12520,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>390</v>
       </c>
@@ -12553,7 +12558,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>104</v>
       </c>
@@ -12591,7 +12596,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>114</v>
       </c>
@@ -12629,7 +12634,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>417</v>
       </c>
@@ -12667,7 +12672,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>525</v>
       </c>
@@ -12705,7 +12710,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>457</v>
       </c>
@@ -12743,7 +12748,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>409</v>
       </c>
@@ -12781,7 +12786,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>92</v>
       </c>
@@ -12819,7 +12824,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>930</v>
       </c>
@@ -12857,7 +12862,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>89</v>
       </c>
@@ -12895,7 +12900,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>336</v>
       </c>
@@ -12933,7 +12938,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>988</v>
       </c>
@@ -12971,7 +12976,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>921</v>
       </c>
@@ -13009,7 +13014,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>933</v>
       </c>
@@ -13047,7 +13052,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>605</v>
       </c>
@@ -13085,7 +13090,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>593</v>
       </c>
@@ -13123,7 +13128,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>611</v>
       </c>
@@ -13161,7 +13166,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>94</v>
       </c>
@@ -13199,7 +13204,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>11</v>
       </c>
@@ -13237,7 +13242,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>396</v>
       </c>
@@ -13275,7 +13280,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>533</v>
       </c>
@@ -13313,7 +13318,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>43</v>
       </c>
@@ -13351,7 +13356,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>42</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>329</v>
       </c>
@@ -13427,7 +13432,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>167</v>
       </c>
@@ -13465,7 +13470,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>497</v>
       </c>
@@ -13503,7 +13508,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>876</v>
       </c>
@@ -13541,7 +13546,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>597</v>
       </c>
@@ -13579,7 +13584,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>756</v>
       </c>
@@ -13617,7 +13622,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>100</v>
       </c>
@@ -13655,7 +13660,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>426</v>
       </c>
@@ -13693,7 +13698,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>178</v>
       </c>
@@ -13731,7 +13736,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>444</v>
       </c>
@@ -13769,7 +13774,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>416</v>
       </c>
@@ -13807,7 +13812,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>870</v>
       </c>
@@ -13845,7 +13850,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>882</v>
       </c>
@@ -13883,7 +13888,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>680</v>
       </c>
@@ -13921,7 +13926,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>177</v>
       </c>
@@ -13959,7 +13964,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>395</v>
       </c>
@@ -13997,7 +14002,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>911</v>
       </c>
@@ -14035,7 +14040,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>793</v>
       </c>
@@ -14073,7 +14078,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>960</v>
       </c>
@@ -14111,7 +14116,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>684</v>
       </c>
@@ -14149,7 +14154,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>383</v>
       </c>
@@ -14187,7 +14192,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>956</v>
       </c>
@@ -14225,7 +14230,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>751</v>
       </c>
@@ -14263,7 +14268,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>257</v>
       </c>
@@ -14301,7 +14306,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>538</v>
       </c>
@@ -14339,7 +14344,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>335</v>
       </c>
@@ -14377,7 +14382,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>15</v>
       </c>
@@ -14415,7 +14420,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>324</v>
       </c>
@@ -14453,7 +14458,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>758</v>
       </c>
@@ -14491,7 +14496,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>222</v>
       </c>
@@ -14529,7 +14534,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>179</v>
       </c>
@@ -14567,7 +14572,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>983</v>
       </c>
@@ -14605,7 +14610,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>22</v>
       </c>
@@ -14643,7 +14648,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>356</v>
       </c>
@@ -14681,7 +14686,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>666</v>
       </c>
@@ -14719,7 +14724,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>861</v>
       </c>
@@ -14757,7 +14762,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>340</v>
       </c>
@@ -14795,7 +14800,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>431</v>
       </c>
@@ -14833,7 +14838,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>551</v>
       </c>
@@ -14871,7 +14876,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>833</v>
       </c>
@@ -14909,7 +14914,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>203</v>
       </c>
@@ -14947,7 +14952,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>630</v>
       </c>
@@ -14985,7 +14990,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>93</v>
       </c>
@@ -15023,7 +15028,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>558</v>
       </c>
@@ -15061,7 +15066,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>68</v>
       </c>
@@ -15099,7 +15104,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>622</v>
       </c>
@@ -15137,7 +15142,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>284</v>
       </c>
@@ -15175,7 +15180,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>844</v>
       </c>
@@ -15213,7 +15218,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>434</v>
       </c>
@@ -15251,7 +15256,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>153</v>
       </c>
@@ -15289,7 +15294,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>75</v>
       </c>
@@ -15327,7 +15332,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" ht="330" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>730</v>
       </c>
@@ -15365,7 +15370,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>446</v>
       </c>
@@ -15403,7 +15408,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>188</v>
       </c>
@@ -15441,7 +15446,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>271</v>
       </c>
@@ -15479,7 +15484,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>236</v>
       </c>
@@ -15517,7 +15522,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" ht="195" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>487</v>
       </c>
@@ -15555,7 +15560,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>117</v>
       </c>
@@ -15593,7 +15598,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>943</v>
       </c>
@@ -15631,7 +15636,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>512</v>
       </c>
@@ -15669,7 +15674,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>825</v>
       </c>
@@ -15707,7 +15712,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>591</v>
       </c>
@@ -15745,7 +15750,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>126</v>
       </c>
@@ -15783,7 +15788,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>116</v>
       </c>
@@ -15821,7 +15826,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>473</v>
       </c>
@@ -15859,7 +15864,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>693</v>
       </c>
@@ -15897,7 +15902,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>57</v>
       </c>
@@ -15935,7 +15940,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>863</v>
       </c>
@@ -15973,7 +15978,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>912</v>
       </c>
@@ -16011,7 +16016,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>369</v>
       </c>
@@ -16049,7 +16054,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>268</v>
       </c>
@@ -16087,7 +16092,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>46</v>
       </c>
@@ -16125,7 +16130,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>349</v>
       </c>
@@ -16163,7 +16168,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>195</v>
       </c>
@@ -16201,7 +16206,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>999</v>
       </c>
@@ -16239,7 +16244,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>834</v>
       </c>
@@ -16277,7 +16282,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>736</v>
       </c>
@@ -16315,7 +16320,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>263</v>
       </c>
@@ -16353,7 +16358,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>443</v>
       </c>
@@ -16391,7 +16396,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>675</v>
       </c>
@@ -16429,7 +16434,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>304</v>
       </c>
@@ -16467,7 +16472,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>341</v>
       </c>
@@ -16505,7 +16510,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>966</v>
       </c>
@@ -16543,7 +16548,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>149</v>
       </c>
@@ -16581,7 +16586,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>124</v>
       </c>
@@ -16619,7 +16624,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>786</v>
       </c>
@@ -16657,7 +16662,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>50</v>
       </c>
@@ -16695,7 +16700,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" ht="105" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>353</v>
       </c>
@@ -16733,7 +16738,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>927</v>
       </c>
@@ -16771,7 +16776,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>142</v>
       </c>
@@ -16809,7 +16814,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>470</v>
       </c>
@@ -16847,7 +16852,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>399</v>
       </c>
@@ -16885,7 +16890,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>625</v>
       </c>
@@ -16923,7 +16928,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>320</v>
       </c>
@@ -16961,7 +16966,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>19</v>
       </c>
@@ -16999,7 +17004,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>809</v>
       </c>
@@ -17037,7 +17042,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" ht="330" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>790</v>
       </c>
@@ -17075,7 +17080,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>808</v>
       </c>
@@ -17113,7 +17118,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>407</v>
       </c>
@@ -17151,7 +17156,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>537</v>
       </c>
@@ -17189,7 +17194,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>620</v>
       </c>
@@ -17227,7 +17232,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>38</v>
       </c>
@@ -17265,7 +17270,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>175</v>
       </c>
@@ -17303,7 +17308,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>245</v>
       </c>
@@ -17341,7 +17346,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>828</v>
       </c>
@@ -17379,7 +17384,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>667</v>
       </c>
@@ -17417,7 +17422,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>754</v>
       </c>
@@ -17455,7 +17460,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>858</v>
       </c>
@@ -17493,7 +17498,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>154</v>
       </c>
@@ -17531,7 +17536,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>287</v>
       </c>
@@ -17569,7 +17574,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>602</v>
       </c>
@@ -17607,7 +17612,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>569</v>
       </c>
@@ -17645,7 +17650,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>743</v>
       </c>
@@ -17683,7 +17688,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>17</v>
       </c>
@@ -17721,7 +17726,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>127</v>
       </c>
@@ -17759,7 +17764,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>322</v>
       </c>
@@ -17797,7 +17802,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>255</v>
       </c>
@@ -17835,7 +17840,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>657</v>
       </c>
@@ -17873,7 +17878,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>964</v>
       </c>
@@ -17911,7 +17916,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>190</v>
       </c>
@@ -17949,7 +17954,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>115</v>
       </c>
@@ -17987,7 +17992,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>616</v>
       </c>
@@ -18025,7 +18030,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>606</v>
       </c>
@@ -18063,7 +18068,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>180</v>
       </c>
@@ -18101,7 +18106,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>301</v>
       </c>
@@ -18139,7 +18144,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>759</v>
       </c>
@@ -18177,7 +18182,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>712</v>
       </c>
@@ -18215,7 +18220,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>723</v>
       </c>
@@ -18253,7 +18258,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>685</v>
       </c>
@@ -18291,7 +18296,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" ht="300" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>979</v>
       </c>
@@ -18329,7 +18334,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>517</v>
       </c>
@@ -18367,7 +18372,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>984</v>
       </c>
@@ -18405,7 +18410,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>45</v>
       </c>
@@ -18443,7 +18448,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>909</v>
       </c>
@@ -18481,7 +18486,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>157</v>
       </c>
@@ -18519,7 +18524,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>851</v>
       </c>
@@ -18557,7 +18562,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>171</v>
       </c>
@@ -18595,7 +18600,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>16</v>
       </c>
@@ -18633,7 +18638,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>511</v>
       </c>
@@ -18671,7 +18676,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>48</v>
       </c>
@@ -18709,7 +18714,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" ht="210" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>971</v>
       </c>
@@ -18747,7 +18752,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>940</v>
       </c>
@@ -18785,7 +18790,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>515</v>
       </c>
@@ -18823,7 +18828,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>952</v>
       </c>
@@ -18861,7 +18866,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>480</v>
       </c>
@@ -18899,7 +18904,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>283</v>
       </c>
@@ -18937,7 +18942,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>718</v>
       </c>
@@ -18975,7 +18980,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>877</v>
       </c>
@@ -19013,7 +19018,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>225</v>
       </c>
@@ -19051,7 +19056,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>26</v>
       </c>
@@ -19089,7 +19094,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>954</v>
       </c>
@@ -19127,7 +19132,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>437</v>
       </c>
@@ -19165,7 +19170,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>951</v>
       </c>
@@ -19203,7 +19208,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>364</v>
       </c>
@@ -19241,7 +19246,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>229</v>
       </c>
@@ -19279,7 +19284,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>37</v>
       </c>
@@ -19317,7 +19322,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>965</v>
       </c>
@@ -19355,7 +19360,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" ht="210" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>374</v>
       </c>
@@ -19393,7 +19398,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>469</v>
       </c>
@@ -19431,7 +19436,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>967</v>
       </c>
@@ -19469,7 +19474,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>850</v>
       </c>
@@ -19507,7 +19512,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>704</v>
       </c>
@@ -19545,7 +19550,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>841</v>
       </c>
@@ -19579,8 +19584,11 @@
       <c r="K351" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="352" spans="1:12">
+      <c r="L351" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>194</v>
       </c>
@@ -19614,8 +19622,11 @@
       <c r="K352" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="353" spans="1:11">
+      <c r="L352" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>854</v>
       </c>
@@ -19649,8 +19660,11 @@
       <c r="K353" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="354" spans="1:11">
+      <c r="L353" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>864</v>
       </c>
@@ -19684,8 +19698,11 @@
       <c r="K354" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="355" spans="1:11">
+      <c r="L354" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>503</v>
       </c>
@@ -19719,8 +19736,11 @@
       <c r="K355" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="356" spans="1:11">
+      <c r="L355" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>969</v>
       </c>
@@ -19754,8 +19774,11 @@
       <c r="K356" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="357" spans="1:11">
+      <c r="L356" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>830</v>
       </c>
@@ -19789,8 +19812,11 @@
       <c r="K357" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="358" spans="1:11">
+      <c r="L357" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>579</v>
       </c>
@@ -19824,8 +19850,11 @@
       <c r="K358" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="359" spans="1:11">
+      <c r="L358" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>968</v>
       </c>
@@ -19859,8 +19888,11 @@
       <c r="K359" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="360" spans="1:11">
+      <c r="L359" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>162</v>
       </c>
@@ -19894,8 +19926,11 @@
       <c r="K360" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="361" spans="1:11">
+      <c r="L360" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>908</v>
       </c>
@@ -19929,8 +19964,11 @@
       <c r="K361" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="362" spans="1:11">
+      <c r="L361" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>152</v>
       </c>
@@ -19964,8 +20002,11 @@
       <c r="K362" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="363" spans="1:11">
+      <c r="L362" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>801</v>
       </c>
@@ -19999,8 +20040,11 @@
       <c r="K363" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="364" spans="1:11">
+      <c r="L363" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>993</v>
       </c>
@@ -20034,8 +20078,11 @@
       <c r="K364" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="365" spans="1:11">
+      <c r="L364" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>755</v>
       </c>
@@ -20069,8 +20116,11 @@
       <c r="K365" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="366" spans="1:11">
+      <c r="L365" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>111</v>
       </c>
@@ -20104,8 +20154,11 @@
       <c r="K366" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="367" spans="1:11">
+      <c r="L366" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>226</v>
       </c>
@@ -20139,8 +20192,11 @@
       <c r="K367" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="368" spans="1:11">
+      <c r="L367" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>688</v>
       </c>
@@ -20174,8 +20230,11 @@
       <c r="K368" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="369" spans="1:11">
+      <c r="L368" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>103</v>
       </c>
@@ -20209,8 +20268,11 @@
       <c r="K369" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="370" spans="1:11">
+      <c r="L369" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>421</v>
       </c>
@@ -20244,8 +20306,11 @@
       <c r="K370" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="371" spans="1:11">
+      <c r="L370" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>419</v>
       </c>
@@ -20279,8 +20344,11 @@
       <c r="K371" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="372" spans="1:11">
+      <c r="L371" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>750</v>
       </c>
@@ -20314,8 +20382,11 @@
       <c r="K372" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="373" spans="1:11">
+      <c r="L372" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>586</v>
       </c>
@@ -20349,8 +20420,11 @@
       <c r="K373" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="374" spans="1:11">
+      <c r="L373" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>780</v>
       </c>
@@ -20384,8 +20458,11 @@
       <c r="K374" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="375" spans="1:11">
+      <c r="L374" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>672</v>
       </c>
@@ -20419,8 +20496,11 @@
       <c r="K375" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="376" spans="1:11">
+      <c r="L375" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>119</v>
       </c>
@@ -20454,8 +20534,11 @@
       <c r="K376" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="377" spans="1:11">
+      <c r="L376" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>53</v>
       </c>
@@ -20489,8 +20572,11 @@
       <c r="K377" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="378" spans="1:11">
+      <c r="L377" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>151</v>
       </c>
@@ -20524,8 +20610,11 @@
       <c r="K378" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="379" spans="1:11">
+      <c r="L378" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>403</v>
       </c>
@@ -20559,8 +20648,11 @@
       <c r="K379" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="380" spans="1:11">
+      <c r="L379" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>945</v>
       </c>
@@ -20594,8 +20686,11 @@
       <c r="K380" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="381" spans="1:11">
+      <c r="L380" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="165" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>207</v>
       </c>
@@ -20629,8 +20724,11 @@
       <c r="K381" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="382" spans="1:11">
+      <c r="L381" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>658</v>
       </c>
@@ -20664,8 +20762,11 @@
       <c r="K382" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="383" spans="1:11">
+      <c r="L382" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>843</v>
       </c>
@@ -20699,8 +20800,11 @@
       <c r="K383" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="384" spans="1:11">
+      <c r="L383" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>762</v>
       </c>
@@ -20734,8 +20838,11 @@
       <c r="K384" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="385" spans="1:11">
+      <c r="L384" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>8</v>
       </c>
@@ -20769,8 +20876,11 @@
       <c r="K385" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="386" spans="1:11">
+      <c r="L385" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>807</v>
       </c>
@@ -20804,8 +20914,11 @@
       <c r="K386" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="387" spans="1:11">
+      <c r="L386" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>36</v>
       </c>
@@ -20839,8 +20952,11 @@
       <c r="K387" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="388" spans="1:11">
+      <c r="L387" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>452</v>
       </c>
@@ -20874,8 +20990,11 @@
       <c r="K388" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="389" spans="1:11">
+      <c r="L388" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>651</v>
       </c>
@@ -20909,8 +21028,11 @@
       <c r="K389" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="390" spans="1:11">
+      <c r="L389" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>253</v>
       </c>
@@ -20944,8 +21066,11 @@
       <c r="K390" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="391" spans="1:11">
+      <c r="L390" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>303</v>
       </c>
@@ -20979,8 +21104,11 @@
       <c r="K391" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="392" spans="1:11">
+      <c r="L391" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>746</v>
       </c>
@@ -21014,8 +21142,11 @@
       <c r="K392" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="393" spans="1:11">
+      <c r="L392" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>571</v>
       </c>
@@ -21049,8 +21180,11 @@
       <c r="K393" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="394" spans="1:11">
+      <c r="L393" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>623</v>
       </c>
@@ -21084,8 +21218,11 @@
       <c r="K394" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="395" spans="1:11">
+      <c r="L394" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>732</v>
       </c>
@@ -21119,8 +21256,11 @@
       <c r="K395" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="396" spans="1:11">
+      <c r="L395" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="165" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>891</v>
       </c>
@@ -21154,8 +21294,11 @@
       <c r="K396" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="397" spans="1:11">
+      <c r="L396" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>262</v>
       </c>
@@ -21189,8 +21332,11 @@
       <c r="K397" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="398" spans="1:11">
+      <c r="L397" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>610</v>
       </c>
@@ -21224,8 +21370,11 @@
       <c r="K398" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="399" spans="1:11">
+      <c r="L398" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>297</v>
       </c>
@@ -21259,8 +21408,11 @@
       <c r="K399" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="400" spans="1:11">
+      <c r="L399" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>414</v>
       </c>
@@ -21294,8 +21446,11 @@
       <c r="K400" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="401" spans="1:11">
+      <c r="L400" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>150</v>
       </c>
@@ -21329,8 +21484,11 @@
       <c r="K401" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="402" spans="1:11">
+      <c r="L401" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>788</v>
       </c>
@@ -21364,8 +21522,11 @@
       <c r="K402" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="403" spans="1:11">
+      <c r="L402" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>640</v>
       </c>
@@ -21399,8 +21560,11 @@
       <c r="K403" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="404" spans="1:11">
+      <c r="L403" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>889</v>
       </c>
@@ -21434,8 +21598,11 @@
       <c r="K404" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="405" spans="1:11">
+      <c r="L404" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>550</v>
       </c>
@@ -21469,8 +21636,11 @@
       <c r="K405" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="406" spans="1:11">
+      <c r="L405" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>886</v>
       </c>
@@ -21504,8 +21674,11 @@
       <c r="K406" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="407" spans="1:11">
+      <c r="L406" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>488</v>
       </c>
@@ -21539,8 +21712,11 @@
       <c r="K407" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="408" spans="1:11">
+      <c r="L407" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>147</v>
       </c>
@@ -21574,8 +21750,11 @@
       <c r="K408" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="409" spans="1:11">
+      <c r="L408" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>146</v>
       </c>
@@ -21609,8 +21788,11 @@
       <c r="K409" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="410" spans="1:11">
+      <c r="L409" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>720</v>
       </c>
@@ -21644,8 +21826,11 @@
       <c r="K410" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="411" spans="1:11">
+      <c r="L410" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>931</v>
       </c>
@@ -21679,8 +21864,11 @@
       <c r="K411" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="412" spans="1:11">
+      <c r="L411" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>739</v>
       </c>
@@ -21714,8 +21902,11 @@
       <c r="K412" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="413" spans="1:11">
+      <c r="L412" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>659</v>
       </c>
@@ -21749,8 +21940,11 @@
       <c r="K413" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="414" spans="1:11">
+      <c r="L413" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>348</v>
       </c>
@@ -21784,8 +21978,11 @@
       <c r="K414" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="415" spans="1:11">
+      <c r="L414" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>463</v>
       </c>
@@ -21819,8 +22016,11 @@
       <c r="K415" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="416" spans="1:11">
+      <c r="L415" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>325</v>
       </c>
@@ -21854,8 +22054,11 @@
       <c r="K416" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="417" spans="1:11">
+      <c r="L416" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>186</v>
       </c>
@@ -21889,8 +22092,11 @@
       <c r="K417" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="418" spans="1:11">
+      <c r="L417" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>123</v>
       </c>
@@ -21924,8 +22130,11 @@
       <c r="K418" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="419" spans="1:11">
+      <c r="L418" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>853</v>
       </c>
@@ -21959,8 +22168,11 @@
       <c r="K419" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="420" spans="1:11">
+      <c r="L419" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>608</v>
       </c>
@@ -21994,8 +22206,11 @@
       <c r="K420" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="421" spans="1:11">
+      <c r="L420" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>143</v>
       </c>
@@ -22029,8 +22244,11 @@
       <c r="K421" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="422" spans="1:11">
+      <c r="L421" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>958</v>
       </c>
@@ -22064,8 +22282,11 @@
       <c r="K422" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="423" spans="1:11">
+      <c r="L422" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>197</v>
       </c>
@@ -22099,8 +22320,11 @@
       <c r="K423" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="424" spans="1:11">
+      <c r="L423" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>609</v>
       </c>
@@ -22134,8 +22358,11 @@
       <c r="K424" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="425" spans="1:11">
+      <c r="L424" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>279</v>
       </c>
@@ -22169,8 +22396,11 @@
       <c r="K425" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="426" spans="1:11">
+      <c r="L425" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>293</v>
       </c>
@@ -22204,8 +22434,11 @@
       <c r="K426" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="427" spans="1:11">
+      <c r="L426" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>400</v>
       </c>
@@ -22239,8 +22472,11 @@
       <c r="K427" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="428" spans="1:11">
+      <c r="L427" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>122</v>
       </c>
@@ -22274,8 +22510,11 @@
       <c r="K428" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="429" spans="1:11">
+      <c r="L428" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>183</v>
       </c>
@@ -22309,8 +22548,11 @@
       <c r="K429" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="430" spans="1:11">
+      <c r="L429" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>202</v>
       </c>
@@ -22344,8 +22586,11 @@
       <c r="K430" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="431" spans="1:11">
+      <c r="L430" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>438</v>
       </c>
@@ -22379,8 +22624,11 @@
       <c r="K431" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="432" spans="1:11">
+      <c r="L431" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>246</v>
       </c>
@@ -22414,8 +22662,11 @@
       <c r="K432" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="433" spans="1:11">
+      <c r="L432" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>415</v>
       </c>
@@ -22449,8 +22700,11 @@
       <c r="K433" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="434" spans="1:11">
+      <c r="L433" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>932</v>
       </c>
@@ -22484,8 +22738,11 @@
       <c r="K434" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="435" spans="1:11">
+      <c r="L434" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>765</v>
       </c>
@@ -22519,8 +22776,11 @@
       <c r="K435" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="436" spans="1:11">
+      <c r="L435" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>906</v>
       </c>
@@ -22554,8 +22814,11 @@
       <c r="K436" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="437" spans="1:11">
+      <c r="L436" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>835</v>
       </c>
@@ -22589,8 +22852,11 @@
       <c r="K437" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="438" spans="1:11">
+      <c r="L437" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>887</v>
       </c>
@@ -22624,8 +22890,11 @@
       <c r="K438" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="439" spans="1:11">
+      <c r="L438" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>129</v>
       </c>
@@ -22659,8 +22928,11 @@
       <c r="K439" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="440" spans="1:11">
+      <c r="L439" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>637</v>
       </c>
@@ -22694,8 +22966,11 @@
       <c r="K440" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="441" spans="1:11">
+      <c r="L440" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>402</v>
       </c>
@@ -22729,8 +23004,11 @@
       <c r="K441" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="442" spans="1:11">
+      <c r="L441" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>784</v>
       </c>
@@ -22764,8 +23042,11 @@
       <c r="K442" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="443" spans="1:11">
+      <c r="L442" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>770</v>
       </c>
@@ -22799,8 +23080,11 @@
       <c r="K443" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="444" spans="1:11">
+      <c r="L443" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>735</v>
       </c>
@@ -22834,8 +23118,11 @@
       <c r="K444" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="445" spans="1:11">
+      <c r="L444" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>913</v>
       </c>
@@ -22869,8 +23156,11 @@
       <c r="K445" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="446" spans="1:11">
+      <c r="L445" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>219</v>
       </c>
@@ -22904,8 +23194,11 @@
       <c r="K446" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="447" spans="1:11">
+      <c r="L446" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>641</v>
       </c>
@@ -22939,8 +23232,11 @@
       <c r="K447" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="448" spans="1:11">
+      <c r="L447" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>915</v>
       </c>
@@ -22974,8 +23270,11 @@
       <c r="K448" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="449" spans="1:11">
+      <c r="L448" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>752</v>
       </c>
@@ -23009,8 +23308,11 @@
       <c r="K449" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="450" spans="1:11">
+      <c r="L449" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>806</v>
       </c>
@@ -23044,8 +23346,11 @@
       <c r="K450" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="451" spans="1:11">
+      <c r="L450" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>919</v>
       </c>
@@ -23079,8 +23384,11 @@
       <c r="K451" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="452" spans="1:11">
+      <c r="L451" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>624</v>
       </c>
@@ -23114,8 +23422,11 @@
       <c r="K452" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="453" spans="1:11">
+      <c r="L452" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>874</v>
       </c>
@@ -23149,8 +23460,11 @@
       <c r="K453" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="454" spans="1:11">
+      <c r="L453" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>760</v>
       </c>
@@ -23184,8 +23498,11 @@
       <c r="K454" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="455" spans="1:11">
+      <c r="L454" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>386</v>
       </c>
@@ -23219,8 +23536,11 @@
       <c r="K455" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="456" spans="1:11">
+      <c r="L455" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>972</v>
       </c>
@@ -23254,8 +23574,11 @@
       <c r="K456" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="457" spans="1:11">
+      <c r="L456" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>509</v>
       </c>
@@ -23289,8 +23612,11 @@
       <c r="K457" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="458" spans="1:11">
+      <c r="L457" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>267</v>
       </c>
@@ -23324,8 +23650,11 @@
       <c r="K458" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="459" spans="1:11">
+      <c r="L458" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>819</v>
       </c>
@@ -23359,8 +23688,11 @@
       <c r="K459" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="460" spans="1:11">
+      <c r="L459" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>441</v>
       </c>
@@ -23394,8 +23726,11 @@
       <c r="K460" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="461" spans="1:11">
+      <c r="L460" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>496</v>
       </c>
@@ -23429,8 +23764,11 @@
       <c r="K461" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="462" spans="1:11">
+      <c r="L461" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>112</v>
       </c>
@@ -23464,8 +23802,11 @@
       <c r="K462" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="463" spans="1:11">
+      <c r="L462" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>691</v>
       </c>
@@ -23499,8 +23840,11 @@
       <c r="K463" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="464" spans="1:11">
+      <c r="L463" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>232</v>
       </c>
@@ -23534,8 +23878,11 @@
       <c r="K464" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="465" spans="1:11">
+      <c r="L464" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>869</v>
       </c>
@@ -23569,8 +23916,11 @@
       <c r="K465" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="466" spans="1:11">
+      <c r="L465" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>607</v>
       </c>
@@ -23604,8 +23954,11 @@
       <c r="K466" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="467" spans="1:11">
+      <c r="L466" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>671</v>
       </c>
@@ -23639,8 +23992,11 @@
       <c r="K467" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="468" spans="1:11">
+      <c r="L467" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" ht="210" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>373</v>
       </c>
@@ -23674,8 +24030,11 @@
       <c r="K468" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="469" spans="1:11">
+      <c r="L468" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>981</v>
       </c>
@@ -23709,8 +24068,11 @@
       <c r="K469" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="470" spans="1:11">
+      <c r="L469" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>842</v>
       </c>
@@ -23744,8 +24106,11 @@
       <c r="K470" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="471" spans="1:11">
+      <c r="L470" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>233</v>
       </c>
@@ -23779,8 +24144,11 @@
       <c r="K471" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="472" spans="1:11">
+      <c r="L471" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>785</v>
       </c>
@@ -23814,8 +24182,11 @@
       <c r="K472" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="473" spans="1:11">
+      <c r="L472" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>676</v>
       </c>
@@ -23849,8 +24220,11 @@
       <c r="K473" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="474" spans="1:11">
+      <c r="L473" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>317</v>
       </c>
@@ -23884,8 +24258,11 @@
       <c r="K474" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="475" spans="1:11">
+      <c r="L474" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>648</v>
       </c>
@@ -23919,8 +24296,11 @@
       <c r="K475" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="476" spans="1:11">
+      <c r="L475" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>410</v>
       </c>
@@ -23954,8 +24334,11 @@
       <c r="K476" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="477" spans="1:11">
+      <c r="L476" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>898</v>
       </c>
@@ -23989,8 +24372,11 @@
       <c r="K477" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="478" spans="1:11">
+      <c r="L477" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>709</v>
       </c>
@@ -24024,8 +24410,11 @@
       <c r="K478" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="479" spans="1:11">
+      <c r="L478" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>358</v>
       </c>
@@ -24059,8 +24448,11 @@
       <c r="K479" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="480" spans="1:11">
+      <c r="L479" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>258</v>
       </c>
@@ -24094,8 +24486,11 @@
       <c r="K480" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="481" spans="1:11">
+      <c r="L480" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>744</v>
       </c>
@@ -24129,8 +24524,11 @@
       <c r="K481" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="482" spans="1:11">
+      <c r="L481" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>627</v>
       </c>
@@ -24164,8 +24562,11 @@
       <c r="K482" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="483" spans="1:11">
+      <c r="L482" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>632</v>
       </c>
@@ -24199,8 +24600,11 @@
       <c r="K483" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="484" spans="1:11">
+      <c r="L483" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>282</v>
       </c>
@@ -24234,8 +24638,11 @@
       <c r="K484" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="485" spans="1:11">
+      <c r="L484" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>376</v>
       </c>
@@ -24269,8 +24676,11 @@
       <c r="K485" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="486" spans="1:11">
+      <c r="L485" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>384</v>
       </c>
@@ -24304,8 +24714,11 @@
       <c r="K486" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="487" spans="1:11">
+      <c r="L486" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>224</v>
       </c>
@@ -24339,8 +24752,11 @@
       <c r="K487" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="488" spans="1:11">
+      <c r="L487" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>953</v>
       </c>
@@ -24374,8 +24790,11 @@
       <c r="K488" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="489" spans="1:11">
+      <c r="L488" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>814</v>
       </c>
@@ -24409,8 +24828,11 @@
       <c r="K489" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="490" spans="1:11">
+      <c r="L489" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>472</v>
       </c>
@@ -24444,8 +24866,11 @@
       <c r="K490" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="491" spans="1:11">
+      <c r="L490" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>347</v>
       </c>
@@ -24479,8 +24904,11 @@
       <c r="K491" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="492" spans="1:11">
+      <c r="L491" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>505</v>
       </c>
@@ -24514,8 +24942,11 @@
       <c r="K492" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="493" spans="1:11">
+      <c r="L492" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>639</v>
       </c>
@@ -24549,8 +24980,11 @@
       <c r="K493" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="494" spans="1:11">
+      <c r="L493" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>987</v>
       </c>
@@ -24584,8 +25018,11 @@
       <c r="K494" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="495" spans="1:11">
+      <c r="L494" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>928</v>
       </c>
@@ -24619,8 +25056,11 @@
       <c r="K495" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="496" spans="1:11">
+      <c r="L495" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>905</v>
       </c>
@@ -24654,8 +25094,11 @@
       <c r="K496" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="497" spans="1:11">
+      <c r="L496" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>619</v>
       </c>
@@ -24689,8 +25132,11 @@
       <c r="K497" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="498" spans="1:11">
+      <c r="L497" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>855</v>
       </c>
@@ -24724,8 +25170,11 @@
       <c r="K498" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="499" spans="1:11">
+      <c r="L498" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>803</v>
       </c>
@@ -24759,8 +25208,11 @@
       <c r="K499" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="500" spans="1:11">
+      <c r="L499" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>645</v>
       </c>
@@ -24794,8 +25246,11 @@
       <c r="K500" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="501" spans="1:11">
+      <c r="L500" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>846</v>
       </c>
@@ -24829,8 +25284,11 @@
       <c r="K501" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="502" spans="1:11">
+      <c r="L501" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>556</v>
       </c>
@@ -24864,8 +25322,11 @@
       <c r="K502" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="503" spans="1:11">
+      <c r="L502" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>957</v>
       </c>
@@ -24899,8 +25360,11 @@
       <c r="K503" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="504" spans="1:11">
+      <c r="L503" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>577</v>
       </c>
@@ -24934,8 +25398,11 @@
       <c r="K504" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="505" spans="1:11">
+      <c r="L504" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>795</v>
       </c>
@@ -24969,8 +25436,11 @@
       <c r="K505" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="506" spans="1:11">
+      <c r="L505" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>85</v>
       </c>
@@ -25004,8 +25474,11 @@
       <c r="K506" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="507" spans="1:11">
+      <c r="L506" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>242</v>
       </c>
@@ -25039,8 +25512,11 @@
       <c r="K507" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="508" spans="1:11">
+      <c r="L507" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>698</v>
       </c>
@@ -25074,8 +25550,11 @@
       <c r="K508" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="509" spans="1:11">
+      <c r="L508" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>159</v>
       </c>
@@ -25109,8 +25588,11 @@
       <c r="K509" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="510" spans="1:11">
+      <c r="L509" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>524</v>
       </c>
@@ -25144,8 +25626,11 @@
       <c r="K510" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="511" spans="1:11">
+      <c r="L510" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>35</v>
       </c>
@@ -25179,8 +25664,11 @@
       <c r="K511" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="512" spans="1:11">
+      <c r="L511" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>540</v>
       </c>
@@ -25214,8 +25702,11 @@
       <c r="K512" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="513" spans="1:11">
+      <c r="L512" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>170</v>
       </c>
@@ -25249,8 +25740,11 @@
       <c r="K513" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="514" spans="1:11">
+      <c r="L513" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>654</v>
       </c>
@@ -25284,8 +25778,11 @@
       <c r="K514" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="515" spans="1:11">
+      <c r="L514" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>890</v>
       </c>
@@ -25319,8 +25816,11 @@
       <c r="K515" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="516" spans="1:11">
+      <c r="L515" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>857</v>
       </c>
@@ -25354,8 +25854,11 @@
       <c r="K516" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="517" spans="1:11">
+      <c r="L516" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>847</v>
       </c>
@@ -25389,8 +25892,11 @@
       <c r="K517" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="518" spans="1:11">
+      <c r="L517" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>944</v>
       </c>
@@ -25424,8 +25930,11 @@
       <c r="K518" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="519" spans="1:11">
+      <c r="L518" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>733</v>
       </c>
@@ -25459,8 +25968,11 @@
       <c r="K519" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="520" spans="1:11">
+      <c r="L519" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>95</v>
       </c>
@@ -25494,8 +26006,11 @@
       <c r="K520" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="521" spans="1:11">
+      <c r="L520" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>563</v>
       </c>
@@ -25529,8 +26044,11 @@
       <c r="K521" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="522" spans="1:11">
+      <c r="L521" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>240</v>
       </c>
@@ -25564,8 +26082,11 @@
       <c r="K522" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="523" spans="1:11">
+      <c r="L522" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>742</v>
       </c>
@@ -25599,8 +26120,11 @@
       <c r="K523" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="524" spans="1:11">
+      <c r="L523" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>574</v>
       </c>
@@ -25634,8 +26158,11 @@
       <c r="K524" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="525" spans="1:11">
+      <c r="L524" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>690</v>
       </c>
@@ -25669,8 +26196,11 @@
       <c r="K525" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="526" spans="1:11">
+      <c r="L525" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>460</v>
       </c>
@@ -25704,8 +26234,11 @@
       <c r="K526" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="527" spans="1:11">
+      <c r="L526" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>553</v>
       </c>
@@ -25739,8 +26272,11 @@
       <c r="K527" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="528" spans="1:11">
+      <c r="L527" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>888</v>
       </c>
@@ -25774,8 +26310,11 @@
       <c r="K528" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="529" spans="1:11">
+      <c r="L528" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>206</v>
       </c>
@@ -25809,8 +26348,11 @@
       <c r="K529" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="530" spans="1:11">
+      <c r="L529" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>392</v>
       </c>
@@ -25844,8 +26386,11 @@
       <c r="K530" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="531" spans="1:11">
+      <c r="L530" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>794</v>
       </c>
@@ -25879,8 +26424,11 @@
       <c r="K531" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="532" spans="1:11">
+      <c r="L531" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>397</v>
       </c>
@@ -25914,8 +26462,11 @@
       <c r="K532" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="533" spans="1:11">
+      <c r="L532" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>766</v>
       </c>
@@ -25949,8 +26500,11 @@
       <c r="K533" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="534" spans="1:11">
+      <c r="L533" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>848</v>
       </c>
@@ -25984,8 +26538,11 @@
       <c r="K534" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="535" spans="1:11">
+      <c r="L534" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>217</v>
       </c>
@@ -26019,8 +26576,11 @@
       <c r="K535" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="536" spans="1:11">
+      <c r="L535" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>4</v>
       </c>
@@ -26054,8 +26614,11 @@
       <c r="K536" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="537" spans="1:11">
+      <c r="L536" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>768</v>
       </c>
@@ -26089,8 +26652,11 @@
       <c r="K537" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="538" spans="1:11">
+      <c r="L537" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>642</v>
       </c>
@@ -26124,8 +26690,11 @@
       <c r="K538" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="539" spans="1:11">
+      <c r="L538" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>929</v>
       </c>
@@ -26159,8 +26728,11 @@
       <c r="K539" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="540" spans="1:11">
+      <c r="L539" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>612</v>
       </c>
@@ -26194,8 +26766,11 @@
       <c r="K540" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="541" spans="1:11">
+      <c r="L540" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>738</v>
       </c>
@@ -26229,8 +26804,11 @@
       <c r="K541" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="542" spans="1:11">
+      <c r="L541" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>546</v>
       </c>
@@ -26264,8 +26842,11 @@
       <c r="K542" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="543" spans="1:11">
+      <c r="L542" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>725</v>
       </c>
@@ -26299,8 +26880,11 @@
       <c r="K543" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="544" spans="1:11">
+      <c r="L543" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>683</v>
       </c>
@@ -26334,8 +26918,11 @@
       <c r="K544" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="545" spans="1:11">
+      <c r="L544" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>98</v>
       </c>
@@ -26369,8 +26956,11 @@
       <c r="K545" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="546" spans="1:11">
+      <c r="L545" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>804</v>
       </c>
@@ -26404,8 +26994,11 @@
       <c r="K546" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="547" spans="1:11">
+      <c r="L546" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>727</v>
       </c>
@@ -26439,8 +27032,11 @@
       <c r="K547" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="548" spans="1:11">
+      <c r="L547" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>573</v>
       </c>
@@ -26474,8 +27070,11 @@
       <c r="K548" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="549" spans="1:11">
+      <c r="L548" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>406</v>
       </c>
@@ -26509,8 +27108,11 @@
       <c r="K549" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="550" spans="1:11">
+      <c r="L549" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>502</v>
       </c>
@@ -26544,8 +27146,11 @@
       <c r="K550" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="551" spans="1:11">
+      <c r="L550" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>47</v>
       </c>
@@ -26579,8 +27184,11 @@
       <c r="K551" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="552" spans="1:11">
+      <c r="L551" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>32</v>
       </c>
@@ -26614,8 +27222,11 @@
       <c r="K552" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="553" spans="1:11">
+      <c r="L552" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>779</v>
       </c>
@@ -26649,8 +27260,11 @@
       <c r="K553" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="554" spans="1:11">
+      <c r="L553" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>839</v>
       </c>
@@ -26684,8 +27298,11 @@
       <c r="K554" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="555" spans="1:11">
+      <c r="L554" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>200</v>
       </c>
@@ -26719,8 +27336,11 @@
       <c r="K555" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="556" spans="1:11">
+      <c r="L555" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>134</v>
       </c>
@@ -26754,8 +27374,11 @@
       <c r="K556" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="557" spans="1:11">
+      <c r="L556" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>27</v>
       </c>
@@ -26789,8 +27412,11 @@
       <c r="K557" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="558" spans="1:11">
+      <c r="L557" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>880</v>
       </c>
@@ -26824,8 +27450,11 @@
       <c r="K558" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="559" spans="1:11">
+      <c r="L558" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>230</v>
       </c>
@@ -26859,8 +27488,11 @@
       <c r="K559" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="560" spans="1:11">
+      <c r="L559" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>489</v>
       </c>
@@ -26894,8 +27526,11 @@
       <c r="K560" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="561" spans="1:11">
+      <c r="L560" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>772</v>
       </c>
@@ -26929,8 +27564,11 @@
       <c r="K561" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="562" spans="1:11">
+      <c r="L561" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>378</v>
       </c>
@@ -26964,8 +27602,11 @@
       <c r="K562" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="563" spans="1:11">
+      <c r="L562" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>288</v>
       </c>
@@ -26999,8 +27640,11 @@
       <c r="K563" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="564" spans="1:11">
+      <c r="L563" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>418</v>
       </c>
@@ -27034,8 +27678,11 @@
       <c r="K564" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="565" spans="1:11">
+      <c r="L564" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>674</v>
       </c>
@@ -27069,8 +27716,11 @@
       <c r="K565" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="566" spans="1:11">
+      <c r="L565" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>391</v>
       </c>
@@ -27104,8 +27754,11 @@
       <c r="K566" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="567" spans="1:11">
+      <c r="L566" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>592</v>
       </c>
@@ -27139,8 +27792,11 @@
       <c r="K567" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="568" spans="1:11">
+      <c r="L567" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>498</v>
       </c>
@@ -27174,8 +27830,11 @@
       <c r="K568" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="569" spans="1:11">
+      <c r="L568" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>138</v>
       </c>
@@ -27209,8 +27868,11 @@
       <c r="K569" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="570" spans="1:11">
+      <c r="L569" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>62</v>
       </c>
@@ -27244,8 +27906,11 @@
       <c r="K570" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="571" spans="1:11">
+      <c r="L570" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>471</v>
       </c>
@@ -27279,8 +27944,11 @@
       <c r="K571" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="572" spans="1:11">
+      <c r="L571" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>647</v>
       </c>
@@ -27314,8 +27982,11 @@
       <c r="K572" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="573" spans="1:11">
+      <c r="L572" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>128</v>
       </c>
@@ -27349,8 +28020,11 @@
       <c r="K573" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="574" spans="1:11">
+      <c r="L573" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>976</v>
       </c>
@@ -27384,8 +28058,11 @@
       <c r="K574" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="575" spans="1:11">
+      <c r="L574" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>520</v>
       </c>
@@ -27419,8 +28096,11 @@
       <c r="K575" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="576" spans="1:11">
+      <c r="L575" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>838</v>
       </c>
@@ -27454,8 +28134,11 @@
       <c r="K576" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="577" spans="1:11">
+      <c r="L576" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>962</v>
       </c>
@@ -27489,8 +28172,11 @@
       <c r="K577" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="578" spans="1:11">
+      <c r="L577" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>64</v>
       </c>
@@ -27524,8 +28210,11 @@
       <c r="K578" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="579" spans="1:11">
+      <c r="L578" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>812</v>
       </c>
@@ -27559,8 +28248,11 @@
       <c r="K579" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="580" spans="1:11">
+      <c r="L579" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>14</v>
       </c>
@@ -27594,8 +28286,11 @@
       <c r="K580" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="581" spans="1:11">
+      <c r="L580" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>156</v>
       </c>
@@ -27629,8 +28324,11 @@
       <c r="K581" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="582" spans="1:11">
+      <c r="L581" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>40</v>
       </c>
@@ -27664,8 +28362,11 @@
       <c r="K582" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="583" spans="1:11">
+      <c r="L582" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>492</v>
       </c>
@@ -27699,8 +28400,11 @@
       <c r="K583" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="584" spans="1:11">
+      <c r="L583" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>379</v>
       </c>
@@ -27734,8 +28438,11 @@
       <c r="K584" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="585" spans="1:11">
+      <c r="L584" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>187</v>
       </c>
@@ -27769,8 +28476,11 @@
       <c r="K585" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="586" spans="1:11">
+      <c r="L585" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>763</v>
       </c>
@@ -27804,8 +28514,11 @@
       <c r="K586" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="587" spans="1:11">
+      <c r="L586" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>216</v>
       </c>
@@ -27839,8 +28552,11 @@
       <c r="K587" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="588" spans="1:11">
+      <c r="L587" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>791</v>
       </c>
@@ -27874,8 +28590,11 @@
       <c r="K588" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="589" spans="1:11">
+      <c r="L588" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>52</v>
       </c>
@@ -27909,8 +28628,11 @@
       <c r="K589" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="590" spans="1:11">
+      <c r="L589" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>878</v>
       </c>
@@ -27944,8 +28666,11 @@
       <c r="K590" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="591" spans="1:11">
+      <c r="L590" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>337</v>
       </c>
@@ -27979,8 +28704,11 @@
       <c r="K591" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="592" spans="1:11">
+      <c r="L591" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>748</v>
       </c>
@@ -28014,8 +28742,11 @@
       <c r="K592" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="593" spans="1:11">
+      <c r="L592" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>719</v>
       </c>
@@ -28049,8 +28780,11 @@
       <c r="K593" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="594" spans="1:11">
+      <c r="L593" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>724</v>
       </c>
@@ -28084,8 +28818,11 @@
       <c r="K594" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="595" spans="1:11">
+      <c r="L594" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>295</v>
       </c>
@@ -28119,8 +28856,11 @@
       <c r="K595" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="596" spans="1:11">
+      <c r="L595" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>701</v>
       </c>
@@ -28154,8 +28894,11 @@
       <c r="K596" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="597" spans="1:11">
+      <c r="L596" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>251</v>
       </c>
@@ -28189,8 +28932,11 @@
       <c r="K597" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="598" spans="1:11">
+      <c r="L597" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>726</v>
       </c>
@@ -28224,8 +28970,11 @@
       <c r="K598" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="599" spans="1:11">
+      <c r="L598" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>461</v>
       </c>
@@ -28259,8 +29008,11 @@
       <c r="K599" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="600" spans="1:11">
+      <c r="L599" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>455</v>
       </c>
@@ -28294,8 +29046,11 @@
       <c r="K600" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="601" spans="1:11">
+      <c r="L600" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>996</v>
       </c>
@@ -28329,8 +29084,11 @@
       <c r="K601" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="602" spans="1:11">
+      <c r="L601" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>815</v>
       </c>
@@ -28364,8 +29122,11 @@
       <c r="K602" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="603" spans="1:11">
+      <c r="L602" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>862</v>
       </c>
@@ -28399,8 +29160,11 @@
       <c r="K603" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="604" spans="1:11">
+      <c r="L603" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>269</v>
       </c>
@@ -28434,8 +29198,11 @@
       <c r="K604" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="605" spans="1:11">
+      <c r="L604" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>201</v>
       </c>
@@ -28469,8 +29236,11 @@
       <c r="K605" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="606" spans="1:11">
+      <c r="L605" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>161</v>
       </c>
@@ -28504,8 +29274,11 @@
       <c r="K606" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="607" spans="1:11">
+      <c r="L606" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>555</v>
       </c>
@@ -28539,8 +29312,11 @@
       <c r="K607" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="608" spans="1:11">
+      <c r="L607" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" ht="315" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>729</v>
       </c>
@@ -28574,8 +29350,11 @@
       <c r="K608" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="609" spans="1:11">
+      <c r="L608" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>401</v>
       </c>
@@ -28609,8 +29388,11 @@
       <c r="K609" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="610" spans="1:11">
+      <c r="L609" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>702</v>
       </c>
@@ -28644,8 +29426,11 @@
       <c r="K610" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="611" spans="1:11">
+      <c r="L610" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>476</v>
       </c>
@@ -28679,8 +29464,11 @@
       <c r="K611" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="612" spans="1:11">
+      <c r="L611" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>821</v>
       </c>
@@ -28714,8 +29502,11 @@
       <c r="K612" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="613" spans="1:11">
+      <c r="L612" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>771</v>
       </c>
@@ -28749,8 +29540,11 @@
       <c r="K613" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="614" spans="1:11">
+      <c r="L613" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>105</v>
       </c>
@@ -28784,8 +29578,11 @@
       <c r="K614" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="615" spans="1:11">
+      <c r="L614" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>565</v>
       </c>
@@ -28819,8 +29616,11 @@
       <c r="K615" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="616" spans="1:11">
+      <c r="L615" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>389</v>
       </c>
@@ -28854,8 +29654,11 @@
       <c r="K616" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="617" spans="1:11">
+      <c r="L616" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>1</v>
       </c>
@@ -28889,8 +29692,11 @@
       <c r="K617" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="618" spans="1:11">
+      <c r="L617" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>937</v>
       </c>
@@ -28924,8 +29730,11 @@
       <c r="K618" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="619" spans="1:11">
+      <c r="L618" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>982</v>
       </c>
@@ -28959,8 +29768,11 @@
       <c r="K619" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="620" spans="1:11">
+      <c r="L619" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>561</v>
       </c>
@@ -28994,8 +29806,11 @@
       <c r="K620" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="621" spans="1:11">
+      <c r="L620" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>80</v>
       </c>
@@ -29029,8 +29844,11 @@
       <c r="K621" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="622" spans="1:11">
+      <c r="L621" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>205</v>
       </c>
@@ -29064,8 +29882,11 @@
       <c r="K622" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="623" spans="1:11">
+      <c r="L622" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>34</v>
       </c>
@@ -29099,8 +29920,11 @@
       <c r="K623" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="624" spans="1:11">
+      <c r="L623" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>775</v>
       </c>
@@ -29134,8 +29958,11 @@
       <c r="K624" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="625" spans="1:11">
+      <c r="L624" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>508</v>
       </c>
@@ -29169,8 +29996,11 @@
       <c r="K625" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="626" spans="1:11">
+      <c r="L625" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>427</v>
       </c>
@@ -29204,8 +30034,11 @@
       <c r="K626" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="627" spans="1:11">
+      <c r="L626" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>454</v>
       </c>
@@ -29239,8 +30072,11 @@
       <c r="K627" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="628" spans="1:11">
+      <c r="L627" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>366</v>
       </c>
@@ -29274,8 +30110,11 @@
       <c r="K628" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="629" spans="1:11">
+      <c r="L628" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>91</v>
       </c>
@@ -29309,8 +30148,11 @@
       <c r="K629" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="630" spans="1:11">
+      <c r="L629" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>339</v>
       </c>
@@ -29344,8 +30186,11 @@
       <c r="K630" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="631" spans="1:11">
+      <c r="L630" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>897</v>
       </c>
@@ -29379,8 +30224,11 @@
       <c r="K631" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="632" spans="1:11">
+      <c r="L631" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>564</v>
       </c>
@@ -29414,8 +30262,11 @@
       <c r="K632" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="633" spans="1:11">
+      <c r="L632" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>345</v>
       </c>
@@ -29449,8 +30300,11 @@
       <c r="K633" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="634" spans="1:11">
+      <c r="L633" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>776</v>
       </c>
@@ -29484,8 +30338,11 @@
       <c r="K634" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="635" spans="1:11">
+      <c r="L634" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>241</v>
       </c>
@@ -29519,8 +30376,11 @@
       <c r="K635" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="636" spans="1:11">
+      <c r="L635" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>13</v>
       </c>
@@ -29554,8 +30414,11 @@
       <c r="K636" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="637" spans="1:11">
+      <c r="L636" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>315</v>
       </c>
@@ -29589,8 +30452,11 @@
       <c r="K637" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="638" spans="1:11">
+      <c r="L637" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>600</v>
       </c>
@@ -29624,8 +30490,11 @@
       <c r="K638" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="639" spans="1:11">
+      <c r="L638" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" ht="165" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>387</v>
       </c>
@@ -29659,8 +30528,11 @@
       <c r="K639" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="640" spans="1:11">
+      <c r="L639" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>273</v>
       </c>
@@ -29694,8 +30566,11 @@
       <c r="K640" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="641" spans="1:11">
+      <c r="L640" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>166</v>
       </c>
@@ -29729,8 +30604,11 @@
       <c r="K641" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="642" spans="1:11">
+      <c r="L641" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>840</v>
       </c>
@@ -29764,8 +30642,11 @@
       <c r="K642" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="643" spans="1:11">
+      <c r="L642" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>992</v>
       </c>
@@ -29799,8 +30680,11 @@
       <c r="K643" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="644" spans="1:11">
+      <c r="L643" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>646</v>
       </c>
@@ -29834,8 +30718,11 @@
       <c r="K644" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="645" spans="1:11">
+      <c r="L644" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>818</v>
       </c>
@@ -29869,8 +30756,11 @@
       <c r="K645" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="646" spans="1:11">
+      <c r="L645" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>484</v>
       </c>
@@ -29904,8 +30794,11 @@
       <c r="K646" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="647" spans="1:11">
+      <c r="L646" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>980</v>
       </c>
@@ -29939,8 +30832,11 @@
       <c r="K647" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="648" spans="1:11">
+      <c r="L647" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>504</v>
       </c>
@@ -29974,8 +30870,11 @@
       <c r="K648" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="649" spans="1:11">
+      <c r="L648" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>831</v>
       </c>
@@ -30009,8 +30908,11 @@
       <c r="K649" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="650" spans="1:11">
+      <c r="L649" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>243</v>
       </c>
@@ -30044,8 +30946,11 @@
       <c r="K650" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="651" spans="1:11">
+      <c r="L650" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>566</v>
       </c>
@@ -30079,8 +30984,11 @@
       <c r="K651" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="652" spans="1:11">
+      <c r="L651" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>875</v>
       </c>
@@ -30114,8 +31022,11 @@
       <c r="K652" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="653" spans="1:11">
+      <c r="L652" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>562</v>
       </c>
@@ -30149,8 +31060,11 @@
       <c r="K653" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="654" spans="1:11">
+      <c r="L653" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" ht="285" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>686</v>
       </c>
@@ -30184,8 +31098,11 @@
       <c r="K654" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="655" spans="1:11">
+      <c r="L654" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" ht="300" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>189</v>
       </c>
@@ -30219,8 +31136,11 @@
       <c r="K655" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="656" spans="1:11">
+      <c r="L655" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>782</v>
       </c>
@@ -30254,8 +31174,11 @@
       <c r="K656" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="657" spans="1:11">
+      <c r="L656" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>699</v>
       </c>
@@ -30289,8 +31212,11 @@
       <c r="K657" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="658" spans="1:11">
+      <c r="L657" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>475</v>
       </c>
@@ -30324,8 +31250,11 @@
       <c r="K658" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="659" spans="1:11">
+      <c r="L658" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>681</v>
       </c>
@@ -30359,8 +31288,11 @@
       <c r="K659" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="660" spans="1:11">
+      <c r="L659" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>510</v>
       </c>
@@ -30394,8 +31326,11 @@
       <c r="K660" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="661" spans="1:11">
+      <c r="L660" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>58</v>
       </c>
@@ -30430,7 +31365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>474</v>
       </c>
@@ -30464,8 +31399,11 @@
       <c r="K662" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="663" spans="1:11">
+      <c r="L662" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>560</v>
       </c>
@@ -30499,8 +31437,11 @@
       <c r="K663" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="664" spans="1:11">
+      <c r="L663" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>856</v>
       </c>
@@ -30534,8 +31475,11 @@
       <c r="K664" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="665" spans="1:11">
+      <c r="L664" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>747</v>
       </c>
@@ -30569,8 +31513,11 @@
       <c r="K665" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="666" spans="1:11">
+      <c r="L665" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>252</v>
       </c>
@@ -30604,8 +31551,11 @@
       <c r="K666" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="667" spans="1:11">
+      <c r="L666" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>21</v>
       </c>
@@ -30639,8 +31589,11 @@
       <c r="K667" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="668" spans="1:11">
+      <c r="L667" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>313</v>
       </c>
@@ -30674,8 +31627,11 @@
       <c r="K668" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="669" spans="1:11">
+      <c r="L668" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>459</v>
       </c>
@@ -30709,8 +31665,11 @@
       <c r="K669" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="670" spans="1:11">
+      <c r="L669" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>160</v>
       </c>
@@ -30744,8 +31703,11 @@
       <c r="K670" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="671" spans="1:11">
+      <c r="L670" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>276</v>
       </c>
@@ -30779,8 +31741,11 @@
       <c r="K671" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="672" spans="1:11">
+      <c r="L671" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>955</v>
       </c>
@@ -30814,8 +31779,11 @@
       <c r="K672" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="673" spans="1:11">
+      <c r="L672" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>191</v>
       </c>
@@ -30849,8 +31817,11 @@
       <c r="K673" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="674" spans="1:11">
+      <c r="L673" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>385</v>
       </c>
@@ -30884,8 +31855,11 @@
       <c r="K674" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="675" spans="1:11">
+      <c r="L674" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>805</v>
       </c>
@@ -30919,8 +31893,11 @@
       <c r="K675" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="676" spans="1:11">
+      <c r="L675" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>413</v>
       </c>
@@ -30954,8 +31931,11 @@
       <c r="K676" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="677" spans="1:11">
+      <c r="L676" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>491</v>
       </c>
@@ -30989,8 +31969,11 @@
       <c r="K677" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="678" spans="1:11">
+      <c r="L677" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>343</v>
       </c>
@@ -31024,8 +32007,11 @@
       <c r="K678" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="679" spans="1:11">
+      <c r="L678" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>769</v>
       </c>
@@ -31059,8 +32045,11 @@
       <c r="K679" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="680" spans="1:11">
+      <c r="L679" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>308</v>
       </c>
@@ -31094,8 +32083,11 @@
       <c r="K680" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="681" spans="1:11">
+      <c r="L680" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>661</v>
       </c>
@@ -31129,8 +32121,11 @@
       <c r="K681" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="682" spans="1:11">
+      <c r="L681" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>130</v>
       </c>
@@ -31164,8 +32159,11 @@
       <c r="K682" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="683" spans="1:11">
+      <c r="L682" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>663</v>
       </c>
@@ -31199,8 +32197,11 @@
       <c r="K683" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="684" spans="1:11">
+      <c r="L683" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>871</v>
       </c>
@@ -31234,8 +32235,11 @@
       <c r="K684" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="685" spans="1:11">
+      <c r="L684" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>99</v>
       </c>
@@ -31269,8 +32273,11 @@
       <c r="K685" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="686" spans="1:11">
+      <c r="L685" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" ht="225" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>372</v>
       </c>
@@ -31304,8 +32311,11 @@
       <c r="K686" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="687" spans="1:11">
+      <c r="L686" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>87</v>
       </c>
@@ -31339,8 +32349,11 @@
       <c r="K687" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="688" spans="1:11">
+      <c r="L687" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>458</v>
       </c>
@@ -31374,8 +32387,11 @@
       <c r="K688" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="689" spans="1:11">
+      <c r="L688" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>330</v>
       </c>
@@ -31409,8 +32425,11 @@
       <c r="K689" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="690" spans="1:11">
+      <c r="L689" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>214</v>
       </c>
@@ -31444,8 +32463,11 @@
       <c r="K690" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="691" spans="1:11">
+      <c r="L690" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>466</v>
       </c>
@@ -31479,8 +32501,11 @@
       <c r="K691" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="692" spans="1:11">
+      <c r="L691" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>121</v>
       </c>
@@ -31514,8 +32539,11 @@
       <c r="K692" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="693" spans="1:11">
+      <c r="L692" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>614</v>
       </c>
@@ -31549,8 +32577,11 @@
       <c r="K693" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="694" spans="1:11">
+      <c r="L693" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>20</v>
       </c>
@@ -31584,8 +32615,11 @@
       <c r="K694" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="695" spans="1:11">
+      <c r="L694" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>700</v>
       </c>
@@ -31619,8 +32653,11 @@
       <c r="K695" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="696" spans="1:11">
+      <c r="L695" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>71</v>
       </c>
@@ -31654,8 +32691,11 @@
       <c r="K696" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="697" spans="1:11">
+      <c r="L696" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>106</v>
       </c>
@@ -31689,8 +32729,11 @@
       <c r="K697" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="698" spans="1:11">
+      <c r="L697" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>270</v>
       </c>
@@ -31724,8 +32767,11 @@
       <c r="K698" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="699" spans="1:11">
+      <c r="L698" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>860</v>
       </c>
@@ -31759,8 +32805,11 @@
       <c r="K699" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="700" spans="1:11">
+      <c r="L699" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" ht="300" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>435</v>
       </c>
@@ -31794,8 +32843,11 @@
       <c r="K700" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="701" spans="1:11">
+      <c r="L700" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>102</v>
       </c>
@@ -31828,6 +32880,9 @@
       </c>
       <c r="K701" t="s">
         <v>16</v>
+      </c>
+      <c r="L701" t="s">
+        <v>1746</v>
       </c>
     </row>
   </sheetData>
